--- a/Data/bady.xlsx
+++ b/Data/bady.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowHeight="17460" activeTab="1"/>
+    <workbookView windowHeight="17460"/>
   </bookViews>
   <sheets>
     <sheet name="qq" sheetId="1" r:id="rId1"/>
@@ -24,10 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="311" uniqueCount="94">
-  <si>
-    <t>编号</t>
-  </si>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="305" uniqueCount="94">
   <si>
     <t>接口名称</t>
   </si>
@@ -54,9 +51,6 @@
   </si>
   <si>
     <t>响应数据</t>
-  </si>
-  <si>
-    <t>001</t>
   </si>
   <si>
     <t>分页获取需求列表</t>
@@ -73,9 +67,6 @@
   <si>
     <t>code
 data</t>
-  </si>
-  <si>
-    <t>002</t>
   </si>
   <si>
     <t>新建需求</t>
@@ -96,55 +87,64 @@
 }</t>
   </si>
   <si>
+    <t>更新需求信息</t>
+  </si>
+  <si>
+    <t>/task/UpdatedTask</t>
+  </si>
+  <si>
+    <t>删除需求信息</t>
+  </si>
+  <si>
+    <t>/task/deleteTask</t>
+  </si>
+  <si>
+    <t>报名开关</t>
+  </si>
+  <si>
+    <t>/task/modifyApplySwitch</t>
+  </si>
+  <si>
+    <t>编号</t>
+  </si>
+  <si>
+    <t>001</t>
+  </si>
+  <si>
+    <t>获取需求里报名详情</t>
+  </si>
+  <si>
+    <t>/apply/getApplyList?task_id=216</t>
+  </si>
+  <si>
+    <t>002</t>
+  </si>
+  <si>
+    <t>添加报名信息</t>
+  </si>
+  <si>
+    <t>/apply/createApply</t>
+  </si>
+  <si>
     <t>003</t>
   </si>
   <si>
-    <t>更新需求信息</t>
-  </si>
-  <si>
-    <t>/task/UpdatedTask</t>
+    <t>更新报名信息</t>
+  </si>
+  <si>
+    <t>/apply/updatedApply</t>
   </si>
   <si>
     <t>004</t>
   </si>
   <si>
-    <t>删除需求信息</t>
-  </si>
-  <si>
-    <t>/task/deleteTask</t>
+    <t>删除报名信息</t>
+  </si>
+  <si>
+    <t>/apply/deleteApply</t>
   </si>
   <si>
     <t>005</t>
-  </si>
-  <si>
-    <t>报名开关</t>
-  </si>
-  <si>
-    <t>/task/modifyApplySwitch</t>
-  </si>
-  <si>
-    <t>获取需求里报名详情</t>
-  </si>
-  <si>
-    <t>/apply/getApplyList?task_id=216</t>
-  </si>
-  <si>
-    <t>添加报名信息</t>
-  </si>
-  <si>
-    <t>/apply/createApply</t>
-  </si>
-  <si>
-    <t>更新报名信息</t>
-  </si>
-  <si>
-    <t>/apply/updatedApply</t>
-  </si>
-  <si>
-    <t>删除报名信息</t>
-  </si>
-  <si>
-    <t>/apply/deleteApply</t>
   </si>
   <si>
     <t>获取个人报名中的项目</t>
@@ -359,12 +359,51 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FFFA7D00"/>
+      <color theme="1"/>
       <name val="宋体"/>
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
       <sz val="11"/>
       <color theme="1"/>
       <name val="宋体"/>
@@ -372,8 +411,9 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color theme="0"/>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
       <name val="宋体"/>
       <charset val="134"/>
       <scheme val="minor"/>
@@ -387,40 +427,9 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <b/>
       <sz val="11"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
+      <color rgb="FF3F3F3F"/>
       <name val="宋体"/>
       <charset val="134"/>
       <scheme val="minor"/>
@@ -434,31 +443,8 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
-      <sz val="13"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <sz val="11"/>
       <color rgb="FF9C0006"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
       <name val="宋体"/>
       <charset val="134"/>
       <scheme val="minor"/>
@@ -473,7 +459,14 @@
     <font>
       <b/>
       <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
       <name val="宋体"/>
       <charset val="134"/>
       <scheme val="minor"/>
@@ -485,6 +478,13 @@
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
   <fills count="35">
     <fill>
@@ -513,6 +513,24 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399945066682943"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="5"/>
         <bgColor indexed="64"/>
       </patternFill>
@@ -525,7 +543,43 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399945066682943"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799951170384838"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -537,157 +591,103 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799951170384838"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799951170384838"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799951170384838"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399945066682943"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399945066682943"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799951170384838"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399945066682943"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="9" tint="0.799951170384838"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399945066682943"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799951170384838"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
+        <fgColor theme="5" tint="0.399945066682943"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
         <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799951170384838"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799951170384838"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399945066682943"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399945066682943"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399945066682943"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799951170384838"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399945066682943"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799951170384838"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399945066682943"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -732,23 +732,8 @@
       <left/>
       <right/>
       <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FFB2B2B2"/>
-      </left>
-      <right style="thin">
-        <color rgb="FFB2B2B2"/>
-      </right>
-      <top style="thin">
-        <color rgb="FFB2B2B2"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FFB2B2B2"/>
+      <bottom style="medium">
+        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
@@ -757,37 +742,7 @@
       <right/>
       <top/>
       <bottom style="medium">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF7F7F7F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF7F7F7F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF7F7F7F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF7F7F7F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="double">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="double">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="double">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="double">
-        <color rgb="FF3F3F3F"/>
+        <color theme="4" tint="0.499984740745262"/>
       </bottom>
       <diagonal/>
     </border>
@@ -818,11 +773,56 @@
       <diagonal/>
     </border>
     <border>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="double">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FFB2B2B2"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFB2B2B2"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF7F7F7F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF7F7F7F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF7F7F7F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF7F7F7F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
       <left/>
       <right/>
       <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
       </bottom>
       <diagonal/>
     </border>
@@ -831,124 +831,124 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="26" borderId="9" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="31" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="17" fillId="15" borderId="9" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="16" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="15" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="14" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="15" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="14" borderId="9" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="0" fillId="17" borderId="8" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="8" borderId="4" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -957,22 +957,22 @@
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="10" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="10" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -1342,35 +1342,34 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:K12"/>
+  <dimension ref="A1:J12"/>
   <sheetViews>
-    <sheetView zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
+    <sheetView tabSelected="1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
       <selection/>
-      <selection pane="bottomLeft" activeCell="L11" sqref="L11"/>
+      <selection pane="bottomLeft" activeCell="G16" sqref="G16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.0625" defaultRowHeight="13.2"/>
   <cols>
-    <col min="1" max="1" width="5.26785714285714" style="9" customWidth="1"/>
-    <col min="2" max="2" width="8.625" style="9" customWidth="1"/>
-    <col min="3" max="3" width="13.6071428571429" style="9" customWidth="1"/>
-    <col min="4" max="4" width="9.0625" style="9"/>
-    <col min="5" max="5" width="16.5714285714286" style="9" customWidth="1"/>
-    <col min="6" max="6" width="12.0714285714286" style="9" customWidth="1"/>
-    <col min="7" max="7" width="18.1071428571429" style="9" customWidth="1"/>
-    <col min="8" max="8" width="10.4464285714286" style="9" customWidth="1"/>
-    <col min="9" max="9" width="8.75" style="9" customWidth="1"/>
-    <col min="10" max="10" width="13.625" style="9" customWidth="1"/>
-    <col min="11" max="11" width="21" style="9" customWidth="1"/>
-    <col min="12" max="16384" width="9.0625" style="9"/>
+    <col min="1" max="1" width="8.625" style="9" customWidth="1"/>
+    <col min="2" max="2" width="13.6071428571429" style="9" customWidth="1"/>
+    <col min="3" max="3" width="9.0625" style="9"/>
+    <col min="4" max="4" width="16.5714285714286" style="9" customWidth="1"/>
+    <col min="5" max="5" width="12.0714285714286" style="9" customWidth="1"/>
+    <col min="6" max="6" width="18.1071428571429" style="9" customWidth="1"/>
+    <col min="7" max="7" width="10.4464285714286" style="9" customWidth="1"/>
+    <col min="8" max="8" width="8.75" style="9" customWidth="1"/>
+    <col min="9" max="9" width="13.625" style="9" customWidth="1"/>
+    <col min="10" max="10" width="21" style="9" customWidth="1"/>
+    <col min="11" max="16384" width="9.0625" style="9"/>
   </cols>
   <sheetData>
-    <row r="1" ht="27" spans="1:11">
+    <row r="1" ht="27" spans="1:10">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="1" t="s">
+      <c r="B1" s="2" t="s">
         <v>1</v>
       </c>
       <c r="C1" s="2" t="s">
@@ -1388,104 +1387,90 @@
       <c r="G1" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="H1" s="2" t="s">
+      <c r="H1" s="7" t="s">
         <v>7</v>
       </c>
       <c r="I1" s="7" t="s">
         <v>8</v>
       </c>
       <c r="J1" s="7" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="2" ht="34" spans="1:10">
+      <c r="A2" s="4" t="s">
         <v>9</v>
       </c>
-      <c r="K1" s="7" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="2" ht="34" spans="1:11">
-      <c r="A2" s="4" t="s">
+      <c r="B2" s="5" t="s">
         <v>10</v>
       </c>
-      <c r="B2" s="4" t="s">
+      <c r="C2" s="4" t="s">
         <v>11</v>
       </c>
-      <c r="C2" s="5" t="s">
-        <v>12</v>
-      </c>
-      <c r="D2" s="4" t="s">
-        <v>13</v>
-      </c>
+      <c r="D2" s="4"/>
       <c r="E2" s="4"/>
       <c r="F2" s="4"/>
       <c r="G2" s="4"/>
-      <c r="H2" s="4"/>
+      <c r="H2" s="4" t="s">
+        <v>12</v>
+      </c>
       <c r="I2" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="J2" s="4"/>
+    </row>
+    <row r="3" ht="53" spans="1:10">
+      <c r="A3" s="4" t="s">
         <v>14</v>
       </c>
-      <c r="J2" s="4" t="s">
+      <c r="B3" s="6" t="s">
         <v>15</v>
       </c>
-      <c r="K2" s="4"/>
-    </row>
-    <row r="3" ht="53" spans="1:11">
-      <c r="A3" s="4" t="s">
+      <c r="C3" s="4" t="s">
         <v>16</v>
       </c>
-      <c r="B3" s="4" t="s">
+      <c r="D3" s="4"/>
+      <c r="E3" s="4" t="s">
         <v>17</v>
       </c>
-      <c r="C3" s="6" t="s">
+      <c r="F3" s="4" t="s">
         <v>18</v>
       </c>
-      <c r="D3" s="4" t="s">
+      <c r="G3" s="4"/>
+      <c r="H3" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="I3" s="4"/>
+      <c r="J3" s="4"/>
+    </row>
+    <row r="4" ht="34" spans="1:10">
+      <c r="A4" s="4" t="s">
         <v>19</v>
       </c>
-      <c r="E3" s="4"/>
-      <c r="F3" s="4" t="s">
+      <c r="B4" s="5" t="s">
         <v>20</v>
       </c>
-      <c r="G3" s="4" t="s">
-        <v>21</v>
-      </c>
-      <c r="H3" s="4"/>
-      <c r="I3" s="4" t="s">
-        <v>14</v>
-      </c>
-      <c r="J3" s="4"/>
-      <c r="K3" s="4"/>
-    </row>
-    <row r="4" ht="34" spans="1:11">
-      <c r="A4" s="4" t="s">
-        <v>22</v>
-      </c>
-      <c r="B4" s="4" t="s">
-        <v>23</v>
-      </c>
-      <c r="C4" s="5" t="s">
-        <v>24</v>
-      </c>
-      <c r="D4" s="4" t="s">
-        <v>19</v>
-      </c>
-      <c r="E4" s="4"/>
-      <c r="F4" s="4" t="s">
-        <v>20</v>
-      </c>
+      <c r="C4" s="4" t="s">
+        <v>16</v>
+      </c>
+      <c r="D4" s="4"/>
+      <c r="E4" s="4" t="s">
+        <v>17</v>
+      </c>
+      <c r="F4" s="4"/>
       <c r="G4" s="4"/>
       <c r="H4" s="4"/>
       <c r="I4" s="4"/>
       <c r="J4" s="4"/>
-      <c r="K4" s="4"/>
-    </row>
-    <row r="5" ht="34" spans="1:11">
+    </row>
+    <row r="5" ht="34" spans="1:10">
       <c r="A5" s="4" t="s">
-        <v>25</v>
-      </c>
-      <c r="B5" s="4" t="s">
-        <v>26</v>
-      </c>
-      <c r="C5" s="5" t="s">
-        <v>27</v>
-      </c>
+        <v>21</v>
+      </c>
+      <c r="B5" s="5" t="s">
+        <v>22</v>
+      </c>
+      <c r="C5" s="4"/>
       <c r="D5" s="4"/>
       <c r="E5" s="4"/>
       <c r="F5" s="4"/>
@@ -1493,18 +1478,15 @@
       <c r="H5" s="4"/>
       <c r="I5" s="4"/>
       <c r="J5" s="4"/>
-      <c r="K5" s="4"/>
-    </row>
-    <row r="6" ht="34" spans="1:11">
+    </row>
+    <row r="6" ht="34" spans="1:10">
       <c r="A6" s="4" t="s">
-        <v>28</v>
-      </c>
-      <c r="B6" s="4" t="s">
-        <v>29</v>
-      </c>
-      <c r="C6" s="5" t="s">
-        <v>30</v>
-      </c>
+        <v>23</v>
+      </c>
+      <c r="B6" s="5" t="s">
+        <v>24</v>
+      </c>
+      <c r="C6" s="4"/>
       <c r="D6" s="4"/>
       <c r="E6" s="4"/>
       <c r="F6" s="4"/>
@@ -1512,37 +1494,30 @@
       <c r="H6" s="4"/>
       <c r="I6" s="4"/>
       <c r="J6" s="4"/>
-      <c r="K6" s="4"/>
-    </row>
-    <row r="7" ht="16.8" spans="1:3">
+    </row>
+    <row r="7" ht="16.8" spans="1:2">
       <c r="A7" s="11"/>
-      <c r="B7" s="11"/>
-      <c r="C7" s="10"/>
-    </row>
-    <row r="8" ht="16.8" spans="1:3">
+      <c r="B7" s="10"/>
+    </row>
+    <row r="8" ht="16.8" spans="1:2">
       <c r="A8" s="11"/>
-      <c r="B8" s="11"/>
-      <c r="C8" s="10"/>
-    </row>
-    <row r="9" ht="16.8" spans="1:3">
+      <c r="B8" s="10"/>
+    </row>
+    <row r="9" ht="16.8" spans="1:2">
       <c r="A9" s="11"/>
-      <c r="B9" s="11"/>
-      <c r="C9" s="10"/>
-    </row>
-    <row r="10" ht="16.8" spans="1:3">
+      <c r="B9" s="10"/>
+    </row>
+    <row r="10" ht="16.8" spans="1:2">
       <c r="A10" s="11"/>
-      <c r="B10" s="11"/>
-      <c r="C10" s="10"/>
-    </row>
-    <row r="11" ht="16.8" spans="1:3">
+      <c r="B10" s="10"/>
+    </row>
+    <row r="11" ht="16.8" spans="1:2">
       <c r="A11" s="11"/>
-      <c r="B11" s="11"/>
-      <c r="C11" s="10"/>
-    </row>
-    <row r="12" ht="16.8" spans="1:3">
+      <c r="B11" s="10"/>
+    </row>
+    <row r="12" ht="16.8" spans="1:2">
       <c r="A12" s="11"/>
-      <c r="B12" s="11"/>
-      <c r="C12" s="10"/>
+      <c r="B12" s="10"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.511805555555556" footer="0.511805555555556"/>
@@ -1570,42 +1545,42 @@
   <sheetData>
     <row r="1" ht="27" spans="1:11">
       <c r="A1" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="B1" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="1" t="s">
+      <c r="C1" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="2" t="s">
+      <c r="D1" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="2" t="s">
+      <c r="E1" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="2" t="s">
+      <c r="F1" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="F1" s="2" t="s">
+      <c r="G1" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="G1" s="2" t="s">
+      <c r="H1" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="H1" s="2" t="s">
+      <c r="I1" s="7" t="s">
         <v>7</v>
       </c>
-      <c r="I1" s="7" t="s">
+      <c r="J1" s="7" t="s">
         <v>8</v>
       </c>
-      <c r="J1" s="7" t="s">
-        <v>9</v>
-      </c>
       <c r="K1" s="7" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
     </row>
     <row r="2" ht="27" spans="1:11">
       <c r="A2" s="4" t="s">
-        <v>10</v>
+        <v>26</v>
       </c>
       <c r="B2" s="4" t="s">
         <v>76</v>
@@ -1614,11 +1589,11 @@
         <v>77</v>
       </c>
       <c r="D2" s="4" t="s">
-        <v>19</v>
+        <v>16</v>
       </c>
       <c r="E2" s="4"/>
       <c r="F2" s="4" t="s">
-        <v>20</v>
+        <v>17</v>
       </c>
       <c r="G2" s="4" t="s">
         <v>78</v>
@@ -1634,7 +1609,7 @@
     </row>
     <row r="3" spans="1:11">
       <c r="A3" s="4" t="s">
-        <v>16</v>
+        <v>29</v>
       </c>
       <c r="B3" s="4" t="s">
         <v>81</v>
@@ -1643,11 +1618,11 @@
         <v>77</v>
       </c>
       <c r="D3" s="4" t="s">
-        <v>19</v>
+        <v>16</v>
       </c>
       <c r="E3" s="4"/>
       <c r="F3" s="4" t="s">
-        <v>20</v>
+        <v>17</v>
       </c>
       <c r="G3" s="4" t="s">
         <v>82</v>
@@ -1663,7 +1638,7 @@
     </row>
     <row r="4" ht="40" spans="1:11">
       <c r="A4" s="4" t="s">
-        <v>22</v>
+        <v>32</v>
       </c>
       <c r="B4" s="4" t="s">
         <v>83</v>
@@ -1672,11 +1647,11 @@
         <v>77</v>
       </c>
       <c r="D4" s="4" t="s">
-        <v>19</v>
+        <v>16</v>
       </c>
       <c r="E4" s="4"/>
       <c r="F4" s="4" t="s">
-        <v>20</v>
+        <v>17</v>
       </c>
       <c r="G4" s="4" t="s">
         <v>84</v>
@@ -1692,7 +1667,7 @@
     </row>
     <row r="5" ht="40" spans="1:11">
       <c r="A5" s="4" t="s">
-        <v>25</v>
+        <v>35</v>
       </c>
       <c r="B5" s="4" t="s">
         <v>85</v>
@@ -1701,11 +1676,11 @@
         <v>86</v>
       </c>
       <c r="D5" s="8" t="s">
-        <v>19</v>
+        <v>16</v>
       </c>
       <c r="E5" s="8"/>
       <c r="F5" s="4" t="s">
-        <v>20</v>
+        <v>17</v>
       </c>
       <c r="G5" s="4" t="s">
         <v>87</v>
@@ -1741,42 +1716,42 @@
   <sheetData>
     <row r="1" ht="27" spans="1:11">
       <c r="A1" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="B1" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="1" t="s">
+      <c r="C1" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="2" t="s">
+      <c r="D1" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="2" t="s">
+      <c r="E1" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="2" t="s">
+      <c r="F1" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="F1" s="2" t="s">
+      <c r="G1" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="G1" s="2" t="s">
+      <c r="H1" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="H1" s="2" t="s">
+      <c r="I1" s="7" t="s">
         <v>7</v>
       </c>
-      <c r="I1" s="7" t="s">
+      <c r="J1" s="7" t="s">
         <v>8</v>
       </c>
-      <c r="J1" s="7" t="s">
-        <v>9</v>
-      </c>
       <c r="K1" s="7" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
     </row>
     <row r="2" ht="51" spans="1:11">
       <c r="A2" s="3" t="s">
-        <v>10</v>
+        <v>26</v>
       </c>
       <c r="B2" s="4" t="s">
         <v>88</v>
@@ -1785,11 +1760,11 @@
         <v>77</v>
       </c>
       <c r="D2" s="4" t="s">
-        <v>19</v>
+        <v>16</v>
       </c>
       <c r="E2" s="4"/>
       <c r="F2" s="4" t="s">
-        <v>20</v>
+        <v>17</v>
       </c>
       <c r="G2" s="4" t="s">
         <v>89</v>
@@ -1805,7 +1780,7 @@
     </row>
     <row r="3" ht="51" spans="1:11">
       <c r="A3" s="3" t="s">
-        <v>16</v>
+        <v>29</v>
       </c>
       <c r="B3" s="4" t="s">
         <v>92</v>
@@ -1814,11 +1789,11 @@
         <v>86</v>
       </c>
       <c r="D3" s="4" t="s">
-        <v>19</v>
+        <v>16</v>
       </c>
       <c r="E3" s="4"/>
       <c r="F3" s="4" t="s">
-        <v>20</v>
+        <v>17</v>
       </c>
       <c r="G3" s="4" t="s">
         <v>93</v>
@@ -1843,7 +1818,7 @@
   <sheetPr/>
   <dimension ref="A1:K11"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="N14" sqref="N14"/>
     </sheetView>
   </sheetViews>
@@ -1855,73 +1830,73 @@
   <sheetData>
     <row r="1" ht="27" spans="1:11">
       <c r="A1" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="B1" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="1" t="s">
+      <c r="C1" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="2" t="s">
+      <c r="D1" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="2" t="s">
+      <c r="E1" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="2" t="s">
+      <c r="F1" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="F1" s="2" t="s">
+      <c r="G1" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="G1" s="2" t="s">
+      <c r="H1" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="H1" s="2" t="s">
+      <c r="I1" s="7" t="s">
         <v>7</v>
       </c>
-      <c r="I1" s="7" t="s">
+      <c r="J1" s="7" t="s">
         <v>8</v>
       </c>
-      <c r="J1" s="7" t="s">
-        <v>9</v>
-      </c>
       <c r="K1" s="7" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
     </row>
     <row r="2" ht="34" spans="1:11">
       <c r="A2" s="4" t="s">
-        <v>10</v>
+        <v>26</v>
       </c>
       <c r="B2" s="4" t="s">
-        <v>31</v>
+        <v>27</v>
       </c>
       <c r="C2" s="5" t="s">
-        <v>32</v>
+        <v>28</v>
       </c>
       <c r="D2" s="4" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="E2" s="4"/>
       <c r="F2" s="4"/>
       <c r="G2" s="4"/>
       <c r="H2" s="4"/>
       <c r="I2" s="4" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="J2" s="4" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="K2" s="4"/>
     </row>
     <row r="3" spans="1:11">
       <c r="A3" s="4" t="s">
-        <v>16</v>
+        <v>29</v>
       </c>
       <c r="B3" s="4" t="s">
-        <v>33</v>
+        <v>30</v>
       </c>
       <c r="C3" s="5" t="s">
-        <v>34</v>
+        <v>31</v>
       </c>
       <c r="D3" s="4"/>
       <c r="E3" s="4"/>
@@ -1934,13 +1909,13 @@
     </row>
     <row r="4" spans="1:11">
       <c r="A4" s="4" t="s">
-        <v>22</v>
+        <v>32</v>
       </c>
       <c r="B4" s="4" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="C4" s="5" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="D4" s="4"/>
       <c r="E4" s="4"/>
@@ -1953,13 +1928,13 @@
     </row>
     <row r="5" spans="1:11">
       <c r="A5" s="4" t="s">
-        <v>25</v>
+        <v>35</v>
       </c>
       <c r="B5" s="4" t="s">
+        <v>36</v>
+      </c>
+      <c r="C5" s="5" t="s">
         <v>37</v>
-      </c>
-      <c r="C5" s="5" t="s">
-        <v>38</v>
       </c>
       <c r="D5" s="4"/>
       <c r="E5" s="4"/>
@@ -1972,7 +1947,7 @@
     </row>
     <row r="6" ht="68" spans="1:11">
       <c r="A6" s="4" t="s">
-        <v>28</v>
+        <v>38</v>
       </c>
       <c r="B6" s="4" t="s">
         <v>39</v>
@@ -2083,42 +2058,42 @@
   <sheetData>
     <row r="1" ht="27" spans="1:11">
       <c r="A1" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="B1" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="1" t="s">
+      <c r="C1" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="2" t="s">
+      <c r="D1" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="2" t="s">
+      <c r="E1" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="2" t="s">
+      <c r="F1" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="F1" s="2" t="s">
+      <c r="G1" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="G1" s="2" t="s">
+      <c r="H1" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="H1" s="2" t="s">
+      <c r="I1" s="7" t="s">
         <v>7</v>
       </c>
-      <c r="I1" s="7" t="s">
+      <c r="J1" s="7" t="s">
         <v>8</v>
       </c>
-      <c r="J1" s="7" t="s">
-        <v>9</v>
-      </c>
       <c r="K1" s="7" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
     </row>
     <row r="2" ht="40" spans="1:11">
       <c r="A2" s="3" t="s">
-        <v>10</v>
+        <v>26</v>
       </c>
       <c r="B2" s="4" t="s">
         <v>44</v>
@@ -2127,7 +2102,7 @@
         <v>45</v>
       </c>
       <c r="D2" s="4" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="E2" s="4"/>
       <c r="F2" s="4"/>
@@ -2136,16 +2111,16 @@
       </c>
       <c r="H2" s="4"/>
       <c r="I2" s="4" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="J2" s="4" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="K2" s="4"/>
     </row>
     <row r="3" ht="84" spans="1:11">
       <c r="A3" s="3" t="s">
-        <v>16</v>
+        <v>29</v>
       </c>
       <c r="B3" s="4" t="s">
         <v>47</v>
@@ -2154,7 +2129,7 @@
         <v>48</v>
       </c>
       <c r="D3" s="4" t="s">
-        <v>19</v>
+        <v>16</v>
       </c>
       <c r="E3" s="4"/>
       <c r="F3" s="4"/>
@@ -2166,7 +2141,7 @@
     </row>
     <row r="4" ht="278" spans="1:11">
       <c r="A4" s="3" t="s">
-        <v>22</v>
+        <v>32</v>
       </c>
       <c r="B4" s="4" t="s">
         <v>49</v>
@@ -2175,7 +2150,7 @@
         <v>50</v>
       </c>
       <c r="D4" s="4" t="s">
-        <v>19</v>
+        <v>16</v>
       </c>
       <c r="E4" s="4"/>
       <c r="F4" s="4"/>
@@ -2212,42 +2187,42 @@
   <sheetData>
     <row r="1" ht="27" spans="1:11">
       <c r="A1" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="B1" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="1" t="s">
+      <c r="C1" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="2" t="s">
+      <c r="D1" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="2" t="s">
+      <c r="E1" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="2" t="s">
+      <c r="F1" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="F1" s="2" t="s">
+      <c r="G1" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="G1" s="2" t="s">
+      <c r="H1" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="H1" s="2" t="s">
+      <c r="I1" s="7" t="s">
         <v>7</v>
       </c>
-      <c r="I1" s="7" t="s">
+      <c r="J1" s="7" t="s">
         <v>8</v>
       </c>
-      <c r="J1" s="7" t="s">
-        <v>9</v>
-      </c>
       <c r="K1" s="7" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
     </row>
     <row r="2" ht="53" spans="1:11">
       <c r="A2" s="3" t="s">
-        <v>16</v>
+        <v>29</v>
       </c>
       <c r="B2" s="4" t="s">
         <v>53</v>
@@ -2256,7 +2231,7 @@
         <v>54</v>
       </c>
       <c r="D2" s="4" t="s">
-        <v>19</v>
+        <v>16</v>
       </c>
       <c r="E2" s="4"/>
       <c r="F2" s="4"/>
@@ -2270,7 +2245,7 @@
     </row>
     <row r="3" ht="80" customHeight="1" spans="1:11">
       <c r="A3" s="3" t="s">
-        <v>22</v>
+        <v>32</v>
       </c>
       <c r="B3" s="4" t="s">
         <v>56</v>
@@ -2279,7 +2254,7 @@
         <v>57</v>
       </c>
       <c r="D3" s="4" t="s">
-        <v>19</v>
+        <v>16</v>
       </c>
       <c r="E3" s="4"/>
       <c r="F3" s="4"/>
@@ -2315,42 +2290,42 @@
   <sheetData>
     <row r="1" ht="27" spans="1:11">
       <c r="A1" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="B1" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="1" t="s">
+      <c r="C1" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="2" t="s">
+      <c r="D1" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="2" t="s">
+      <c r="E1" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="2" t="s">
+      <c r="F1" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="F1" s="2" t="s">
+      <c r="G1" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="G1" s="2" t="s">
+      <c r="H1" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="H1" s="2" t="s">
+      <c r="I1" s="7" t="s">
         <v>7</v>
       </c>
-      <c r="I1" s="7" t="s">
+      <c r="J1" s="7" t="s">
         <v>8</v>
       </c>
-      <c r="J1" s="7" t="s">
-        <v>9</v>
-      </c>
       <c r="K1" s="7" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
     </row>
     <row r="2" ht="34" spans="1:11">
       <c r="A2" s="3" t="s">
-        <v>10</v>
+        <v>26</v>
       </c>
       <c r="B2" s="4" t="s">
         <v>59</v>
@@ -2359,23 +2334,23 @@
         <v>60</v>
       </c>
       <c r="D2" s="4" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="E2" s="4"/>
       <c r="F2" s="4"/>
       <c r="G2" s="4"/>
       <c r="H2" s="4"/>
       <c r="I2" s="4" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="J2" s="4" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="K2" s="4"/>
     </row>
     <row r="3" ht="66" spans="1:11">
       <c r="A3" s="3" t="s">
-        <v>16</v>
+        <v>29</v>
       </c>
       <c r="B3" s="4" t="s">
         <v>53</v>
@@ -2384,7 +2359,7 @@
         <v>54</v>
       </c>
       <c r="D3" s="4" t="s">
-        <v>19</v>
+        <v>16</v>
       </c>
       <c r="E3" s="4"/>
       <c r="F3" s="4"/>
@@ -2398,7 +2373,7 @@
     </row>
     <row r="4" ht="66" spans="1:11">
       <c r="A4" s="3" t="s">
-        <v>22</v>
+        <v>32</v>
       </c>
       <c r="B4" s="4" t="s">
         <v>56</v>
@@ -2407,7 +2382,7 @@
         <v>57</v>
       </c>
       <c r="D4" s="4" t="s">
-        <v>19</v>
+        <v>16</v>
       </c>
       <c r="E4" s="4"/>
       <c r="F4" s="4"/>
@@ -2421,7 +2396,7 @@
     </row>
     <row r="5" ht="34" spans="1:11">
       <c r="A5" s="4" t="s">
-        <v>25</v>
+        <v>35</v>
       </c>
       <c r="B5" s="4" t="s">
         <v>61</v>
@@ -2430,7 +2405,7 @@
         <v>62</v>
       </c>
       <c r="D5" s="4" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="E5" s="4"/>
       <c r="F5" s="4"/>
@@ -2459,42 +2434,42 @@
   <sheetData>
     <row r="1" ht="27" spans="1:11">
       <c r="A1" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="B1" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="1" t="s">
+      <c r="C1" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="2" t="s">
+      <c r="D1" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="2" t="s">
+      <c r="E1" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="2" t="s">
+      <c r="F1" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="F1" s="2" t="s">
+      <c r="G1" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="G1" s="2" t="s">
+      <c r="H1" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="H1" s="2" t="s">
+      <c r="I1" s="7" t="s">
         <v>7</v>
       </c>
-      <c r="I1" s="7" t="s">
+      <c r="J1" s="7" t="s">
         <v>8</v>
       </c>
-      <c r="J1" s="7" t="s">
-        <v>9</v>
-      </c>
       <c r="K1" s="7" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
     </row>
     <row r="2" ht="40" spans="1:11">
       <c r="A2" s="3" t="s">
-        <v>10</v>
+        <v>26</v>
       </c>
       <c r="B2" s="4" t="s">
         <v>63</v>
@@ -2503,17 +2478,17 @@
         <v>64</v>
       </c>
       <c r="D2" s="4" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="E2" s="4"/>
       <c r="F2" s="4"/>
       <c r="G2" s="4"/>
       <c r="H2" s="4"/>
       <c r="I2" s="4" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="J2" s="4" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="K2" s="4"/>
     </row>
@@ -2564,42 +2539,42 @@
   <sheetData>
     <row r="1" ht="27" spans="1:11">
       <c r="A1" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="B1" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="1" t="s">
+      <c r="C1" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="2" t="s">
+      <c r="D1" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="2" t="s">
+      <c r="E1" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="2" t="s">
+      <c r="F1" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="F1" s="2" t="s">
+      <c r="G1" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="G1" s="2" t="s">
+      <c r="H1" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="H1" s="2" t="s">
+      <c r="I1" s="7" t="s">
         <v>7</v>
       </c>
-      <c r="I1" s="7" t="s">
+      <c r="J1" s="7" t="s">
         <v>8</v>
       </c>
-      <c r="J1" s="7" t="s">
-        <v>9</v>
-      </c>
       <c r="K1" s="7" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
     </row>
     <row r="2" ht="66" spans="1:11">
       <c r="A2" s="3" t="s">
-        <v>10</v>
+        <v>26</v>
       </c>
       <c r="B2" s="4" t="s">
         <v>67</v>
@@ -2608,18 +2583,18 @@
         <v>68</v>
       </c>
       <c r="D2" s="4" t="s">
-        <v>19</v>
+        <v>16</v>
       </c>
       <c r="E2" s="4"/>
       <c r="F2" s="4" t="s">
-        <v>20</v>
+        <v>17</v>
       </c>
       <c r="G2" s="4" t="s">
         <v>69</v>
       </c>
       <c r="H2" s="4"/>
       <c r="I2" s="4" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="J2" s="4" t="s">
         <v>70</v>
@@ -2634,10 +2609,10 @@
         <v>68</v>
       </c>
       <c r="D3" s="4" t="s">
-        <v>19</v>
+        <v>16</v>
       </c>
       <c r="F3" s="4" t="s">
-        <v>20</v>
+        <v>17</v>
       </c>
       <c r="G3" s="4" t="s">
         <v>72</v>
@@ -2648,10 +2623,10 @@
         <v>68</v>
       </c>
       <c r="D4" s="4" t="s">
-        <v>19</v>
+        <v>16</v>
       </c>
       <c r="F4" s="4" t="s">
-        <v>20</v>
+        <v>17</v>
       </c>
       <c r="G4" s="4" t="s">
         <v>73</v>
@@ -2662,10 +2637,10 @@
         <v>68</v>
       </c>
       <c r="D5" s="4" t="s">
-        <v>19</v>
+        <v>16</v>
       </c>
       <c r="F5" s="4" t="s">
-        <v>20</v>
+        <v>17</v>
       </c>
       <c r="G5" s="4" t="s">
         <v>74</v>
@@ -2676,10 +2651,10 @@
         <v>68</v>
       </c>
       <c r="D6" s="4" t="s">
-        <v>19</v>
+        <v>16</v>
       </c>
       <c r="F6" s="4" t="s">
-        <v>20</v>
+        <v>17</v>
       </c>
       <c r="G6" s="4" t="s">
         <v>75</v>
@@ -2690,10 +2665,10 @@
         <v>68</v>
       </c>
       <c r="D7" s="4" t="s">
-        <v>19</v>
+        <v>16</v>
       </c>
       <c r="F7" s="4" t="s">
-        <v>20</v>
+        <v>17</v>
       </c>
       <c r="G7" s="4" t="s">
         <v>69</v>
@@ -2704,10 +2679,10 @@
         <v>68</v>
       </c>
       <c r="D8" s="4" t="s">
-        <v>19</v>
+        <v>16</v>
       </c>
       <c r="F8" s="4" t="s">
-        <v>20</v>
+        <v>17</v>
       </c>
       <c r="G8" s="4" t="s">
         <v>69</v>
@@ -2718,10 +2693,10 @@
         <v>68</v>
       </c>
       <c r="D9" s="4" t="s">
-        <v>19</v>
+        <v>16</v>
       </c>
       <c r="F9" s="4" t="s">
-        <v>20</v>
+        <v>17</v>
       </c>
       <c r="G9" s="4" t="s">
         <v>69</v>
@@ -2732,10 +2707,10 @@
         <v>68</v>
       </c>
       <c r="D10" s="4" t="s">
-        <v>19</v>
+        <v>16</v>
       </c>
       <c r="F10" s="4" t="s">
-        <v>20</v>
+        <v>17</v>
       </c>
       <c r="G10" s="4" t="s">
         <v>69</v>
@@ -2746,10 +2721,10 @@
         <v>68</v>
       </c>
       <c r="D11" s="4" t="s">
-        <v>19</v>
+        <v>16</v>
       </c>
       <c r="F11" s="4" t="s">
-        <v>20</v>
+        <v>17</v>
       </c>
       <c r="G11" s="4" t="s">
         <v>69</v>
@@ -2774,42 +2749,42 @@
   <sheetData>
     <row r="1" ht="27" spans="1:11">
       <c r="A1" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="B1" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="1" t="s">
+      <c r="C1" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="2" t="s">
+      <c r="D1" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="2" t="s">
+      <c r="E1" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="2" t="s">
+      <c r="F1" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="F1" s="2" t="s">
+      <c r="G1" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="G1" s="2" t="s">
+      <c r="H1" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="H1" s="2" t="s">
+      <c r="I1" s="7" t="s">
         <v>7</v>
       </c>
-      <c r="I1" s="7" t="s">
+      <c r="J1" s="7" t="s">
         <v>8</v>
       </c>
-      <c r="J1" s="7" t="s">
-        <v>9</v>
-      </c>
       <c r="K1" s="7" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
     </row>
     <row r="2" ht="132" spans="1:11">
       <c r="A2" s="3" t="s">
-        <v>10</v>
+        <v>26</v>
       </c>
       <c r="B2" s="4" t="s">
         <v>67</v>
@@ -2818,18 +2793,18 @@
         <v>68</v>
       </c>
       <c r="D2" s="4" t="s">
-        <v>19</v>
+        <v>16</v>
       </c>
       <c r="E2" s="4"/>
       <c r="F2" s="4" t="s">
-        <v>20</v>
+        <v>17</v>
       </c>
       <c r="G2" s="4" t="s">
         <v>69</v>
       </c>
       <c r="H2" s="4"/>
       <c r="I2" s="4" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="J2" s="4" t="s">
         <v>70</v>
